--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/10/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.16000000000001</v>
+        <v>-22.14670000000001</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.03099999999998</v>
+        <v>-20.06619999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.47429999999997</v>
+        <v>-20.55039999999997</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -768,7 +768,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>5.553700000000003</v>
+        <v>5.439000000000004</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.74839999999999</v>
+        <v>-21.62499999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.150200000000003</v>
+        <v>6.014500000000002</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.439000000000009</v>
+        <v>9.377100000000008</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1062,7 +1062,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>4.922200000000005</v>
+        <v>5.4613</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>6.479900000000002</v>
+        <v>7.039800000000003</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>6.437599999999991</v>
+        <v>6.093999999999995</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.437899999999998</v>
+        <v>5.455399999999997</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.82489999999999</v>
+        <v>-21.77409999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>5.935100000000001</v>
+        <v>5.689799999999998</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1188,7 +1188,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.835400000000003</v>
+        <v>4.8755</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.37000000000001</v>
+        <v>-22.41050000000002</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-21.98829999999998</v>
+        <v>-21.85449999999999</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.63239999999999</v>
+        <v>-21.63799999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1412,7 +1412,7 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>7.330100000000003</v>
+        <v>7.2288</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.08250000000001</v>
+        <v>-20.03800000000002</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.72539999999999</v>
+        <v>-21.6604</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1636,7 +1636,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>5.090900000000001</v>
+        <v>5.016899999999998</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1650,7 +1650,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>5.537499999999994</v>
+        <v>5.425999999999997</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.36060000000001</v>
+        <v>-21.18840000000002</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>4.7315</v>
+        <v>5.165999999999999</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
